--- a/mySystem/mySystem/xls/tuihuo/表8产品退货记录表.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表8产品退货记录表.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,21 +87,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辅计量单位）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>退货理由</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -116,10 +101,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>接收人 （验收人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>接收日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -137,75 +118,50 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质量部
+    <t>返工</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(辅计量单位）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA 质量部
 处理建议</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返工</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>报废</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产部
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA 生产部
 处理记录</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质量部
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA 质量部
 验证结论</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收人（验收人）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,23 +194,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -316,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,65 +264,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,16 +570,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,8 +592,8 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
@@ -693,221 +601,221 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
+    <row r="14" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>16</v>
+    <row r="15" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>17</v>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>19</v>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>22</v>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -919,11 +827,6 @@
     <mergeCell ref="B18:E19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:E23"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:E13"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -932,8 +835,14 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:E13"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/tuihuo/表8产品退货记录表.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表8产品退货记录表.xlsx
@@ -258,34 +258,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,263 +570,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="91.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E23"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -840,6 +832,14 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
